--- a/data/raw/지도캐시.xlsx
+++ b/data/raw/지도캐시.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4994"/>
+  <dimension ref="A1:C4996"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85243,6 +85243,40 @@
         </is>
       </c>
     </row>
+    <row r="4995">
+      <c r="A4995" t="inlineStr">
+        <is>
+          <t>인천서구 원당동 1041-1</t>
+        </is>
+      </c>
+      <c r="B4995" t="inlineStr">
+        <is>
+          <t>37.5935427</t>
+        </is>
+      </c>
+      <c r="C4995" t="inlineStr">
+        <is>
+          <t>126.7126453</t>
+        </is>
+      </c>
+    </row>
+    <row r="4996">
+      <c r="A4996" t="inlineStr">
+        <is>
+          <t>미추홀구 관교동 494-2</t>
+        </is>
+      </c>
+      <c r="B4996" t="inlineStr">
+        <is>
+          <t>37.4424182</t>
+        </is>
+      </c>
+      <c r="C4996" t="inlineStr">
+        <is>
+          <t>126.6942168</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/raw/지도캐시.xlsx
+++ b/data/raw/지도캐시.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4996"/>
+  <dimension ref="A1:C4998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85277,6 +85277,40 @@
         </is>
       </c>
     </row>
+    <row r="4997">
+      <c r="A4997" t="inlineStr">
+        <is>
+          <t>부평구 부평동 111</t>
+        </is>
+      </c>
+      <c r="B4997" t="inlineStr">
+        <is>
+          <t>37.4999539</t>
+        </is>
+      </c>
+      <c r="C4997" t="inlineStr">
+        <is>
+          <t>126.732924</t>
+        </is>
+      </c>
+    </row>
+    <row r="4998">
+      <c r="A4998" t="inlineStr">
+        <is>
+          <t>부평구 부개동 11-2</t>
+        </is>
+      </c>
+      <c r="B4998" t="inlineStr">
+        <is>
+          <t>37.5047229</t>
+        </is>
+      </c>
+      <c r="C4998" t="inlineStr">
+        <is>
+          <t>126.7377745</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/raw/지도캐시.xlsx
+++ b/data/raw/지도캐시.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5012"/>
+  <dimension ref="A1:C5013"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85549,6 +85549,23 @@
         </is>
       </c>
     </row>
+    <row r="5013">
+      <c r="A5013" t="inlineStr">
+        <is>
+          <t>남동구 구월동 1094</t>
+        </is>
+      </c>
+      <c r="B5013" t="inlineStr">
+        <is>
+          <t>37.4531116</t>
+        </is>
+      </c>
+      <c r="C5013" t="inlineStr">
+        <is>
+          <t>126.6984486</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
